--- a/database/industries/ravankar/shaspa/product/quarterly_seprated.xlsx
+++ b/database/industries/ravankar/shaspa/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA2D185-E0A9-464F-9DB9-4EB22D1C6851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741FE0C3-AEE8-45C8-B120-C34F374681DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -672,16 +687,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I199"/>
+  <dimension ref="B1:N199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -690,8 +705,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -702,8 +722,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -714,8 +739,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -724,8 +754,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -736,8 +771,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -748,8 +788,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -758,8 +803,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -780,8 +830,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -790,10 +855,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -802,368 +872,598 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>902</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1106</v>
+      </c>
+      <c r="G11" s="11">
+        <v>192</v>
+      </c>
+      <c r="H11" s="11">
+        <v>382</v>
+      </c>
+      <c r="I11" s="11">
+        <v>878</v>
+      </c>
+      <c r="J11" s="11">
         <v>808</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>50026</v>
+      </c>
+      <c r="F12" s="13">
+        <v>42254</v>
+      </c>
+      <c r="G12" s="13">
+        <v>49340</v>
+      </c>
+      <c r="H12" s="13">
+        <v>61255</v>
+      </c>
+      <c r="I12" s="13">
+        <v>59779</v>
+      </c>
+      <c r="J12" s="13">
         <v>56002</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>12983</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>18736</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>19385</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>1144</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>1281</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>1495</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>77</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>7</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+        <v>18</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13">
         <v>189</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>502</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>14174</v>
+      </c>
+      <c r="F17" s="11">
+        <v>15691</v>
+      </c>
+      <c r="G17" s="11">
+        <v>15210</v>
+      </c>
+      <c r="H17" s="11">
+        <v>13660</v>
+      </c>
+      <c r="I17" s="11">
+        <v>9923</v>
+      </c>
+      <c r="J17" s="11">
         <v>9372</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
         <v>5981</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>5074</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>1758</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11">
         <v>12183</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>17016</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>14655</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
         <v>10572</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>15301</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>17194</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="11">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="11">
         <v>5755</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>5035</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>4872</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="13">
+        <v>18</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="13">
         <v>2395</v>
       </c>
-      <c r="H22" s="13">
+      <c r="M22" s="13">
         <v>1597</v>
       </c>
-      <c r="I22" s="13">
+      <c r="N22" s="13">
         <v>2276</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="11">
         <v>4216</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>5159</v>
       </c>
-      <c r="I23" s="11">
+      <c r="N23" s="11">
         <v>9993</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
+        <v>65102</v>
+      </c>
+      <c r="F25" s="15">
+        <v>59051</v>
+      </c>
+      <c r="G25" s="15">
+        <v>64742</v>
+      </c>
+      <c r="H25" s="15">
+        <v>75297</v>
+      </c>
+      <c r="I25" s="15">
+        <v>70580</v>
+      </c>
+      <c r="J25" s="15">
         <v>66182</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
         <v>55495</v>
       </c>
-      <c r="H25" s="15">
+      <c r="M25" s="15">
         <v>69708</v>
       </c>
-      <c r="I25" s="15">
+      <c r="N25" s="15">
         <v>71911</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1172,296 +1472,481 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>67904</v>
+      </c>
+      <c r="F27" s="11">
+        <v>63764</v>
+      </c>
+      <c r="G27" s="11">
+        <v>71498</v>
+      </c>
+      <c r="H27" s="11">
+        <v>43387</v>
+      </c>
+      <c r="I27" s="11">
+        <v>68572</v>
+      </c>
+      <c r="J27" s="11">
         <v>38201</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="13">
+        <v>18</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="13">
         <v>64239</v>
       </c>
-      <c r="H28" s="13">
+      <c r="M28" s="13">
         <v>64109</v>
       </c>
-      <c r="I28" s="13">
+      <c r="N28" s="13">
         <v>36128</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="11">
+        <v>18</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="11">
         <v>2308</v>
       </c>
-      <c r="H29" s="11">
+      <c r="M29" s="11">
         <v>629</v>
       </c>
-      <c r="I29" s="11">
+      <c r="N29" s="11">
         <v>4200</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
+        <v>55753</v>
+      </c>
+      <c r="F30" s="13">
+        <v>53666</v>
+      </c>
+      <c r="G30" s="13">
+        <v>43973</v>
+      </c>
+      <c r="H30" s="13">
+        <v>62207</v>
+      </c>
+      <c r="I30" s="13">
+        <v>63040</v>
+      </c>
+      <c r="J30" s="13">
         <v>70543</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11">
+        <v>18</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="11">
         <v>4118</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>7223</v>
       </c>
-      <c r="I31" s="11">
+      <c r="N31" s="11">
         <v>5345</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="13">
+        <v>18</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="13">
         <v>157</v>
       </c>
-      <c r="H32" s="13">
+      <c r="M32" s="13">
         <v>21</v>
       </c>
-      <c r="I32" s="13">
+      <c r="N32" s="13">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11">
+        <v>18</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="11">
         <v>626</v>
       </c>
-      <c r="H33" s="11">
+      <c r="M33" s="11">
         <v>480</v>
       </c>
-      <c r="I33" s="11">
+      <c r="N33" s="11">
         <v>6532</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="13">
+        <v>18</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="13">
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="13">
+        <v>18</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="13">
         <v>54716</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>48801</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>50861</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17">
+        <v>123657</v>
+      </c>
+      <c r="F38" s="17">
+        <v>117430</v>
+      </c>
+      <c r="G38" s="17">
+        <v>115471</v>
+      </c>
+      <c r="H38" s="17">
+        <v>105594</v>
+      </c>
+      <c r="I38" s="17">
+        <v>131612</v>
+      </c>
+      <c r="J38" s="17">
         <v>108744</v>
       </c>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
-      <c r="G38" s="17">
+      <c r="K38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L38" s="17">
         <v>126164</v>
       </c>
-      <c r="H38" s="17">
+      <c r="M38" s="17">
         <v>121263</v>
       </c>
-      <c r="I38" s="17">
+      <c r="N38" s="17">
         <v>103613</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1470,34 +1955,54 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -1516,66 +2021,111 @@
       <c r="I41" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="17">
+        <v>0</v>
+      </c>
+      <c r="K41" s="17">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17">
+        <v>0</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="15">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="15">
+        <v>0</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>13</v>
+      <c r="E43" s="17">
+        <v>-21</v>
+      </c>
+      <c r="F43" s="17">
+        <v>-21</v>
+      </c>
+      <c r="G43" s="17">
+        <v>-30</v>
+      </c>
+      <c r="H43" s="17">
+        <v>-10</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>13</v>
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0</v>
       </c>
       <c r="G44" s="15">
         <v>0</v>
@@ -1586,30 +2136,60 @@
       <c r="I44" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="15">
+        <v>0</v>
+      </c>
+      <c r="M44" s="15">
+        <v>0</v>
+      </c>
+      <c r="N44" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17">
+        <v>188738</v>
+      </c>
+      <c r="F45" s="17">
+        <v>176460</v>
+      </c>
+      <c r="G45" s="17">
+        <v>180183</v>
+      </c>
+      <c r="H45" s="17">
+        <v>180881</v>
+      </c>
+      <c r="I45" s="17">
+        <v>202192</v>
+      </c>
+      <c r="J45" s="17">
         <v>174926</v>
       </c>
-      <c r="F45" s="17">
-        <v>0</v>
-      </c>
-      <c r="G45" s="17">
+      <c r="K45" s="17">
+        <v>0</v>
+      </c>
+      <c r="L45" s="17">
         <v>181659</v>
       </c>
-      <c r="H45" s="17">
+      <c r="M45" s="17">
         <v>190971</v>
       </c>
-      <c r="I45" s="17">
+      <c r="N45" s="17">
         <v>175524</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1618,8 +2198,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1628,8 +2213,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1638,10 +2228,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1660,8 +2255,23 @@
       <c r="I49" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1670,10 +2280,15 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -1682,368 +2297,598 @@
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
+        <v>134565</v>
+      </c>
+      <c r="F52" s="11">
+        <v>263262</v>
+      </c>
+      <c r="G52" s="11">
+        <v>117419</v>
+      </c>
+      <c r="H52" s="11">
+        <v>79671</v>
+      </c>
+      <c r="I52" s="11">
+        <v>266431</v>
+      </c>
+      <c r="J52" s="11">
         <v>258067</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
+        <v>5873226</v>
+      </c>
+      <c r="F53" s="13">
+        <v>7384146</v>
+      </c>
+      <c r="G53" s="13">
+        <v>10673492</v>
+      </c>
+      <c r="H53" s="13">
+        <v>13467199</v>
+      </c>
+      <c r="I53" s="13">
+        <v>14471170</v>
+      </c>
+      <c r="J53" s="13">
         <v>15946482</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="11">
+        <v>18</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="11">
         <v>3712776</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>5783110</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>4874283</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="13">
+        <v>18</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="13">
         <v>360642</v>
       </c>
-      <c r="H55" s="13">
+      <c r="M55" s="13">
         <v>384172</v>
       </c>
-      <c r="I55" s="13">
+      <c r="N55" s="13">
         <v>325329</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="11">
+        <v>18</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="11">
         <v>32134</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>2988</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>60805</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="13">
+        <v>18</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="13">
         <v>76303</v>
       </c>
-      <c r="H57" s="13">
+      <c r="M57" s="13">
         <v>270248</v>
       </c>
-      <c r="I57" s="13">
+      <c r="N57" s="13">
         <v>55527</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>782416</v>
+      </c>
+      <c r="F58" s="11">
+        <v>1366754</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1616701</v>
+      </c>
+      <c r="H58" s="11">
+        <v>1505380</v>
+      </c>
+      <c r="I58" s="11">
+        <v>1252774</v>
+      </c>
+      <c r="J58" s="11">
         <v>1677262</v>
       </c>
-      <c r="F58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="13">
+        <v>18</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="13">
         <v>1562727</v>
       </c>
-      <c r="H59" s="13">
+      <c r="M59" s="13">
         <v>1206069</v>
       </c>
-      <c r="I59" s="13">
+      <c r="N59" s="13">
         <v>446293</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="11">
+        <v>18</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="11">
         <v>3830917</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>5735835</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>4700093</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="13">
+        <v>18</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="13">
         <v>4713091</v>
       </c>
-      <c r="H61" s="13">
+      <c r="M61" s="13">
         <v>7394667</v>
       </c>
-      <c r="I61" s="13">
+      <c r="N61" s="13">
         <v>7360487</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="11">
+        <v>18</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="11">
         <v>2347615</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>2047801</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>1960175</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="13">
+        <v>18</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="13">
         <v>1060127</v>
       </c>
-      <c r="H63" s="13">
+      <c r="M63" s="13">
         <v>752776</v>
       </c>
-      <c r="I63" s="13">
+      <c r="N63" s="13">
         <v>949514</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="11">
+        <v>18</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="11">
         <v>631067</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>629731</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>1024275</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="13">
+        <v>0</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15">
+        <v>6790207</v>
+      </c>
+      <c r="F66" s="15">
+        <v>9014162</v>
+      </c>
+      <c r="G66" s="15">
+        <v>12407612</v>
+      </c>
+      <c r="H66" s="15">
+        <v>15052250</v>
+      </c>
+      <c r="I66" s="15">
+        <v>15990375</v>
+      </c>
+      <c r="J66" s="15">
         <v>17881811</v>
       </c>
-      <c r="F66" s="15">
-        <v>0</v>
-      </c>
-      <c r="G66" s="15">
+      <c r="K66" s="15">
+        <v>0</v>
+      </c>
+      <c r="L66" s="15">
         <v>18327399</v>
       </c>
-      <c r="H66" s="15">
+      <c r="M66" s="15">
         <v>24207397</v>
       </c>
-      <c r="I66" s="15">
+      <c r="N66" s="15">
         <v>21756781</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -2052,296 +2897,481 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>6369605</v>
+      </c>
+      <c r="F68" s="11">
+        <v>10194410</v>
+      </c>
+      <c r="G68" s="11">
+        <v>9544355</v>
+      </c>
+      <c r="H68" s="11">
+        <v>8427897</v>
+      </c>
+      <c r="I68" s="11">
+        <v>15108964</v>
+      </c>
+      <c r="J68" s="11">
         <v>8493370</v>
       </c>
-      <c r="F68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="13">
+        <v>18</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="13">
         <v>16841780</v>
       </c>
-      <c r="H69" s="13">
+      <c r="M69" s="13">
         <v>18427090</v>
       </c>
-      <c r="I69" s="13">
+      <c r="N69" s="13">
         <v>9666791</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="11">
+        <v>18</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="11">
         <v>638244</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>154910</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>955049</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
+        <v>2722223</v>
+      </c>
+      <c r="F71" s="13">
+        <v>3604351</v>
+      </c>
+      <c r="G71" s="13">
+        <v>4733576</v>
+      </c>
+      <c r="H71" s="13">
+        <v>4712185</v>
+      </c>
+      <c r="I71" s="13">
+        <v>6103077</v>
+      </c>
+      <c r="J71" s="13">
         <v>7835608</v>
       </c>
-      <c r="F71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="11">
+        <v>18</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="11">
         <v>1335684</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>2131204</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>1344859</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="13">
+        <v>18</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="13">
         <v>49823</v>
       </c>
-      <c r="H73" s="13">
+      <c r="M73" s="13">
         <v>7960</v>
       </c>
-      <c r="I73" s="13">
+      <c r="N73" s="13">
         <v>50325</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="11">
+        <v>18</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="11">
         <v>192899</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>163113</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>1745189</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="13">
+        <v>18</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="13">
         <v>96821</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="11">
-        <v>0</v>
-      </c>
-      <c r="I76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="11">
+        <v>0</v>
+      </c>
+      <c r="N76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="13">
+        <v>18</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="13">
         <v>7820501</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>5218198</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>4474853</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="11">
+        <v>0</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17">
+        <v>9091828</v>
+      </c>
+      <c r="F79" s="17">
+        <v>13798761</v>
+      </c>
+      <c r="G79" s="17">
+        <v>14277931</v>
+      </c>
+      <c r="H79" s="17">
+        <v>13140082</v>
+      </c>
+      <c r="I79" s="17">
+        <v>21212041</v>
+      </c>
+      <c r="J79" s="17">
         <v>16328978</v>
       </c>
-      <c r="F79" s="17">
-        <v>0</v>
-      </c>
-      <c r="G79" s="17">
+      <c r="K79" s="17">
+        <v>0</v>
+      </c>
+      <c r="L79" s="17">
         <v>26878931</v>
       </c>
-      <c r="H79" s="17">
+      <c r="M79" s="17">
         <v>26102475</v>
       </c>
-      <c r="I79" s="17">
+      <c r="N79" s="17">
         <v>18333887</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -2350,34 +3380,54 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E81" s="11">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -2396,102 +3446,177 @@
       <c r="I82" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="17">
+        <v>0</v>
+      </c>
+      <c r="K82" s="17">
+        <v>0</v>
+      </c>
+      <c r="L82" s="17">
+        <v>0</v>
+      </c>
+      <c r="M82" s="17">
+        <v>0</v>
+      </c>
+      <c r="N82" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="15">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="15">
+        <v>0</v>
+      </c>
+      <c r="L83" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D84" s="17"/>
-      <c r="E84" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>13</v>
+      <c r="E84" s="17">
+        <v>-288254</v>
+      </c>
+      <c r="F84" s="17">
+        <v>-248166</v>
+      </c>
+      <c r="G84" s="17">
+        <v>-504609</v>
+      </c>
+      <c r="H84" s="17">
+        <v>-2692</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D85" s="15"/>
-      <c r="E85" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>13</v>
+      <c r="E85" s="15">
+        <v>0</v>
+      </c>
+      <c r="F85" s="15">
+        <v>0</v>
       </c>
       <c r="G85" s="15">
         <v>0</v>
       </c>
       <c r="H85" s="15">
-        <v>0</v>
+        <v>-209651</v>
       </c>
       <c r="I85" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="15">
+        <v>0</v>
+      </c>
+      <c r="M85" s="15">
+        <v>0</v>
+      </c>
+      <c r="N85" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17">
+        <v>15593781</v>
+      </c>
+      <c r="F86" s="17">
+        <v>22564757</v>
+      </c>
+      <c r="G86" s="17">
+        <v>26180934</v>
+      </c>
+      <c r="H86" s="17">
+        <v>27979989</v>
+      </c>
+      <c r="I86" s="17">
+        <v>37202416</v>
+      </c>
+      <c r="J86" s="17">
         <v>34210789</v>
       </c>
-      <c r="F86" s="17">
-        <v>0</v>
-      </c>
-      <c r="G86" s="17">
+      <c r="K86" s="17">
+        <v>0</v>
+      </c>
+      <c r="L86" s="17">
         <v>45206330</v>
       </c>
-      <c r="H86" s="17">
+      <c r="M86" s="17">
         <v>50309872</v>
       </c>
-      <c r="I86" s="17">
+      <c r="N86" s="17">
         <v>40090668</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2500,8 +3625,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2510,8 +3640,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2520,10 +3655,15 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2542,8 +3682,23 @@
       <c r="I90" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2552,10 +3707,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2564,346 +3724,561 @@
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
+        <v>149185144</v>
+      </c>
+      <c r="F93" s="11">
+        <v>209459313</v>
+      </c>
+      <c r="G93" s="11">
+        <v>217005208</v>
+      </c>
+      <c r="H93" s="11">
+        <v>208562827</v>
+      </c>
+      <c r="I93" s="11">
+        <v>303452164</v>
+      </c>
+      <c r="J93" s="11">
         <v>319389851</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
+        <v>117403470</v>
+      </c>
+      <c r="F94" s="13">
+        <v>162938571</v>
+      </c>
+      <c r="G94" s="13">
+        <v>202076656</v>
+      </c>
+      <c r="H94" s="13">
+        <v>219854689</v>
+      </c>
+      <c r="I94" s="13">
+        <v>242077820</v>
+      </c>
+      <c r="J94" s="13">
         <v>284748438</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="11">
+        <v>18</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="11">
         <v>216096949</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>285972117</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>308663002</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>251446118</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="13">
+        <v>18</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="13">
         <v>189697873</v>
       </c>
-      <c r="G96" s="13">
+      <c r="L96" s="13">
         <v>315246504</v>
       </c>
-      <c r="H96" s="13">
+      <c r="M96" s="13">
         <v>299900078</v>
       </c>
-      <c r="I96" s="13">
+      <c r="N96" s="13">
         <v>217611371</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="11">
+        <v>18</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="11">
         <v>230742025</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>417324675</v>
       </c>
-      <c r="H97" s="11">
+      <c r="M97" s="11">
         <v>426857143</v>
       </c>
-      <c r="I97" s="11">
+      <c r="N97" s="11">
         <v>419344828</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="13">
+        <v>18</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="13">
         <v>320205068</v>
       </c>
-      <c r="G98" s="13">
+      <c r="L98" s="13">
         <v>403719577</v>
       </c>
-      <c r="H98" s="13">
+      <c r="M98" s="13">
         <v>538342629</v>
       </c>
-      <c r="I98" s="13">
+      <c r="N98" s="13">
         <v>402369565</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>55200790</v>
+      </c>
+      <c r="F99" s="11">
+        <v>87104327</v>
+      </c>
+      <c r="G99" s="11">
+        <v>106291979</v>
+      </c>
+      <c r="H99" s="11">
+        <v>110203514</v>
+      </c>
+      <c r="I99" s="11">
+        <v>126249521</v>
+      </c>
+      <c r="J99" s="11">
         <v>178965216</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="13">
+        <v>18</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="13">
         <v>214780696</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>261281893</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>237695901</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>253864050</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="11">
+        <v>18</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="11">
         <v>240693062</v>
       </c>
-      <c r="G101" s="11">
+      <c r="L101" s="11">
         <v>314447755</v>
       </c>
-      <c r="H101" s="11">
+      <c r="M101" s="11">
         <v>337084803</v>
       </c>
-      <c r="I101" s="11">
+      <c r="N101" s="11">
         <v>320716001</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="13">
+        <v>18</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="13">
         <v>323589178</v>
       </c>
-      <c r="G102" s="13">
+      <c r="L102" s="13">
         <v>445808835</v>
       </c>
-      <c r="H102" s="13">
+      <c r="M102" s="13">
         <v>483279982</v>
       </c>
-      <c r="I102" s="13">
+      <c r="N102" s="13">
         <v>428084623</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="11">
+        <v>18</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="11">
         <v>281867281</v>
       </c>
-      <c r="G103" s="11">
+      <c r="L103" s="11">
         <v>407926151</v>
       </c>
-      <c r="H103" s="11">
+      <c r="M103" s="11">
         <v>406713208</v>
       </c>
-      <c r="I103" s="11">
+      <c r="N103" s="11">
         <v>402334770</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="13">
+        <v>18</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="13">
         <v>310625077</v>
       </c>
-      <c r="G104" s="13">
+      <c r="L104" s="13">
         <v>442641754</v>
       </c>
-      <c r="H104" s="13">
+      <c r="M104" s="13">
         <v>471368817</v>
       </c>
-      <c r="I104" s="13">
+      <c r="N104" s="13">
         <v>417185413</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="11">
+        <v>18</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="11">
         <v>79862578</v>
       </c>
-      <c r="G105" s="11">
+      <c r="L105" s="11">
         <v>149683824</v>
       </c>
-      <c r="H105" s="11">
+      <c r="M105" s="11">
         <v>122064547</v>
       </c>
-      <c r="I105" s="11">
+      <c r="N105" s="11">
         <v>102499249</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -2912,274 +4287,444 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
+        <v>93803090</v>
+      </c>
+      <c r="F108" s="11">
+        <v>159830077</v>
+      </c>
+      <c r="G108" s="11">
+        <v>167327523</v>
+      </c>
+      <c r="H108" s="11">
+        <v>194249360</v>
+      </c>
+      <c r="I108" s="11">
+        <v>220337222</v>
+      </c>
+      <c r="J108" s="11">
         <v>222333709</v>
       </c>
-      <c r="F108" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="13">
+        <v>18</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="13">
         <v>210341565</v>
       </c>
-      <c r="G109" s="13">
+      <c r="L109" s="13">
         <v>262173757</v>
       </c>
-      <c r="H109" s="13">
+      <c r="M109" s="13">
         <v>287433746</v>
       </c>
-      <c r="I109" s="13">
+      <c r="N109" s="13">
         <v>267570610</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="11">
+        <v>18</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="11">
         <v>184811201</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>276535529</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>246279809</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>227392619</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
+        <v>48826485</v>
+      </c>
+      <c r="F111" s="13">
+        <v>67162636</v>
+      </c>
+      <c r="G111" s="13">
+        <v>81018816</v>
+      </c>
+      <c r="H111" s="13">
+        <v>75750076</v>
+      </c>
+      <c r="I111" s="13">
+        <v>96812770</v>
+      </c>
+      <c r="J111" s="13">
         <v>111075628</v>
       </c>
-      <c r="F111" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N111" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="11">
+        <v>18</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" s="11">
         <v>201492057</v>
       </c>
-      <c r="G112" s="11">
+      <c r="L112" s="11">
         <v>324352598</v>
       </c>
-      <c r="H112" s="11">
+      <c r="M112" s="11">
         <v>295058009</v>
       </c>
-      <c r="I112" s="11">
+      <c r="N112" s="11">
         <v>251610664</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="13">
+        <v>18</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" s="13">
         <v>258383234</v>
       </c>
-      <c r="G113" s="13">
+      <c r="L113" s="13">
         <v>317343949</v>
       </c>
-      <c r="H113" s="13">
+      <c r="M113" s="13">
         <v>379047619</v>
       </c>
-      <c r="I113" s="13">
+      <c r="N113" s="13">
         <v>322596154</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="11">
+        <v>18</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" s="11">
         <v>225386222</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>308145367</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>339818750</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>267175291</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="13">
+        <v>18</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="13">
         <v>253372093</v>
       </c>
-      <c r="G115" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" s="13">
+      <c r="L115" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M115" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N115" s="13">
         <v>247624041</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="13">
+        <v>18</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J117" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" s="13">
         <v>82429732</v>
       </c>
-      <c r="G117" s="13">
+      <c r="L117" s="13">
         <v>142928960</v>
       </c>
-      <c r="H117" s="13">
+      <c r="M117" s="13">
         <v>106928096</v>
       </c>
-      <c r="I117" s="13">
+      <c r="N117" s="13">
         <v>87982010</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -3188,32 +4733,52 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3222,8 +4787,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3232,8 +4802,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3242,10 +4817,15 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3264,8 +4844,23 @@
       <c r="I124" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3274,10 +4869,15 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
@@ -3286,368 +4886,598 @@
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
+        <v>-87362</v>
+      </c>
+      <c r="F127" s="11">
+        <v>-151557</v>
+      </c>
+      <c r="G127" s="11">
+        <v>-56948</v>
+      </c>
+      <c r="H127" s="11">
+        <v>-57065</v>
+      </c>
+      <c r="I127" s="11">
+        <v>-210834</v>
+      </c>
+      <c r="J127" s="11">
         <v>-229511</v>
       </c>
-      <c r="F127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
+        <v>-5029629</v>
+      </c>
+      <c r="F128" s="13">
+        <v>-5546150</v>
+      </c>
+      <c r="G128" s="13">
+        <v>-8356900</v>
+      </c>
+      <c r="H128" s="13">
+        <v>-10201735</v>
+      </c>
+      <c r="I128" s="13">
+        <v>-11917891</v>
+      </c>
+      <c r="J128" s="13">
         <v>-11874107</v>
       </c>
-      <c r="F128" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I128" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N128" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" s="11">
+        <v>18</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" s="11">
         <v>-10774038</v>
       </c>
-      <c r="G129" s="11">
+      <c r="L129" s="11">
         <v>-2629392</v>
       </c>
-      <c r="H129" s="11">
+      <c r="M129" s="11">
         <v>-4546401</v>
       </c>
-      <c r="I129" s="11">
+      <c r="N129" s="11">
         <v>-3607130</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="13">
+        <v>18</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" s="13">
         <v>-956993</v>
       </c>
-      <c r="G130" s="13">
+      <c r="L130" s="13">
         <v>-268121</v>
       </c>
-      <c r="H130" s="13">
+      <c r="M130" s="13">
         <v>-180394</v>
       </c>
-      <c r="I130" s="13">
+      <c r="N130" s="13">
         <v>-237618</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" s="11">
+        <v>18</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" s="11">
         <v>-149849</v>
       </c>
-      <c r="G131" s="11">
+      <c r="L131" s="11">
         <v>-13447</v>
       </c>
-      <c r="H131" s="11">
+      <c r="M131" s="11">
         <v>-1659</v>
       </c>
-      <c r="I131" s="11">
+      <c r="N131" s="11">
         <v>-36815</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="13">
+        <v>18</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K132" s="13">
         <v>-378286</v>
       </c>
-      <c r="G132" s="13">
+      <c r="L132" s="13">
         <v>-45421</v>
       </c>
-      <c r="H132" s="13">
+      <c r="M132" s="13">
         <v>-144139</v>
       </c>
-      <c r="I132" s="13">
+      <c r="N132" s="13">
         <v>-35852</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="11">
+        <v>-573374</v>
+      </c>
+      <c r="F133" s="11">
+        <v>-872911</v>
+      </c>
+      <c r="G133" s="11">
+        <v>-940218</v>
+      </c>
+      <c r="H133" s="11">
+        <v>-880617</v>
+      </c>
+      <c r="I133" s="11">
+        <v>-686111</v>
+      </c>
+      <c r="J133" s="11">
         <v>-1425219</v>
       </c>
-      <c r="F133" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I133" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N133" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D134" s="13"/>
       <c r="E134" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" s="13">
+        <v>18</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" s="13">
         <v>-1817842</v>
       </c>
-      <c r="G134" s="13">
+      <c r="L134" s="13">
         <v>-1072154</v>
       </c>
-      <c r="H134" s="13">
+      <c r="M134" s="13">
         <v>-544694</v>
       </c>
-      <c r="I134" s="13">
+      <c r="N134" s="13">
         <v>-347266</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="11">
+        <v>18</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K135" s="11">
         <v>-15568346</v>
       </c>
-      <c r="G135" s="11">
+      <c r="L135" s="11">
         <v>-2841558</v>
       </c>
-      <c r="H135" s="11">
+      <c r="M135" s="11">
         <v>-6246136</v>
       </c>
-      <c r="I135" s="11">
+      <c r="N135" s="11">
         <v>-4813097</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="13">
+        <v>18</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" s="13">
         <v>-13320934</v>
       </c>
-      <c r="G136" s="13">
+      <c r="L136" s="13">
         <v>-3456734</v>
       </c>
-      <c r="H136" s="13">
+      <c r="M136" s="13">
         <v>-6076328</v>
       </c>
-      <c r="I136" s="13">
+      <c r="N136" s="13">
         <v>-6011270</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="11">
+        <v>18</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K137" s="11">
         <v>-5433619</v>
       </c>
-      <c r="G137" s="11">
+      <c r="L137" s="11">
         <v>-1496714</v>
       </c>
-      <c r="H137" s="11">
+      <c r="M137" s="11">
         <v>-1589609</v>
       </c>
-      <c r="I137" s="11">
+      <c r="N137" s="11">
         <v>-1275734</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" s="13">
+        <v>18</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K138" s="13">
         <v>-1745388</v>
       </c>
-      <c r="G138" s="13">
+      <c r="L138" s="13">
         <v>-572178</v>
       </c>
-      <c r="H138" s="13">
+      <c r="M138" s="13">
         <v>-620275</v>
       </c>
-      <c r="I138" s="13">
+      <c r="N138" s="13">
         <v>-643064</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" s="11">
+        <v>18</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" s="11">
         <v>-1055101</v>
       </c>
-      <c r="G139" s="11">
+      <c r="L139" s="11">
         <v>-390264</v>
       </c>
-      <c r="H139" s="11">
+      <c r="M139" s="11">
         <v>-353074</v>
       </c>
-      <c r="I139" s="11">
+      <c r="N139" s="11">
         <v>-706150</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D140" s="13"/>
       <c r="E140" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K140" s="13">
+        <v>0</v>
+      </c>
+      <c r="L140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N140" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15">
+        <v>-5690365</v>
+      </c>
+      <c r="F141" s="15">
+        <v>-6570618</v>
+      </c>
+      <c r="G141" s="15">
+        <v>-9354066</v>
+      </c>
+      <c r="H141" s="15">
+        <v>-11139417</v>
+      </c>
+      <c r="I141" s="15">
+        <v>-12814836</v>
+      </c>
+      <c r="J141" s="15">
         <v>-13528837</v>
       </c>
-      <c r="F141" s="15">
+      <c r="K141" s="15">
         <v>-51200396</v>
       </c>
-      <c r="G141" s="15">
+      <c r="L141" s="15">
         <v>-12785983</v>
       </c>
-      <c r="H141" s="15">
+      <c r="M141" s="15">
         <v>-20302709</v>
       </c>
-      <c r="I141" s="15">
+      <c r="N141" s="15">
         <v>-17713996</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -3656,296 +5486,481 @@
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11">
+        <v>-4501868</v>
+      </c>
+      <c r="F143" s="11">
+        <v>-5963115</v>
+      </c>
+      <c r="G143" s="11">
+        <v>-6988146</v>
+      </c>
+      <c r="H143" s="11">
+        <v>-5454466</v>
+      </c>
+      <c r="I143" s="11">
+        <v>-920520</v>
+      </c>
+      <c r="J143" s="11">
         <v>-13251975</v>
       </c>
-      <c r="F143" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H143" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I143" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N143" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D144" s="13"/>
       <c r="E144" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" s="13">
+        <v>18</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144" s="13">
         <v>-26061751</v>
       </c>
-      <c r="G144" s="13">
+      <c r="L144" s="13">
         <v>-12810387</v>
       </c>
-      <c r="H144" s="13">
+      <c r="M144" s="13">
         <v>-15809602</v>
       </c>
-      <c r="I144" s="13">
+      <c r="N144" s="13">
         <v>-5857554</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="11">
+        <v>18</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145" s="11">
         <v>-1872994</v>
       </c>
-      <c r="G145" s="11">
+      <c r="L145" s="11">
         <v>-363551</v>
       </c>
-      <c r="H145" s="11">
+      <c r="M145" s="11">
         <v>-86943</v>
       </c>
-      <c r="I145" s="11">
+      <c r="N145" s="11">
         <v>-960484</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D146" s="13"/>
       <c r="E146" s="13">
+        <v>-1227775</v>
+      </c>
+      <c r="F146" s="13">
+        <v>-2216073</v>
+      </c>
+      <c r="G146" s="13">
+        <v>-2557241</v>
+      </c>
+      <c r="H146" s="13">
+        <v>-2738161</v>
+      </c>
+      <c r="I146" s="13">
+        <v>-12155846</v>
+      </c>
+      <c r="J146" s="13">
         <v>2863974</v>
       </c>
-      <c r="F146" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I146" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N146" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" s="11">
+        <v>18</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K147" s="11">
         <v>-3620050</v>
       </c>
-      <c r="G147" s="11">
+      <c r="L147" s="11">
         <v>-621073</v>
       </c>
-      <c r="H147" s="11">
+      <c r="M147" s="11">
         <v>-1621803</v>
       </c>
-      <c r="I147" s="11">
+      <c r="N147" s="11">
         <v>-575468</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D148" s="13"/>
       <c r="E148" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="13">
+        <v>18</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K148" s="13">
         <v>-136531</v>
       </c>
-      <c r="G148" s="13">
+      <c r="L148" s="13">
         <v>-34265</v>
       </c>
-      <c r="H148" s="13">
+      <c r="M148" s="13">
         <v>-11086</v>
       </c>
-      <c r="I148" s="13">
+      <c r="N148" s="13">
         <v>-41919</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="11">
+        <v>18</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K149" s="11">
         <v>-1818415</v>
       </c>
-      <c r="G149" s="11">
+      <c r="L149" s="11">
         <v>-117903</v>
       </c>
-      <c r="H149" s="11">
+      <c r="M149" s="11">
         <v>-143632</v>
       </c>
-      <c r="I149" s="11">
+      <c r="N149" s="11">
         <v>-1650268</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D150" s="13"/>
       <c r="E150" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="13">
+        <v>18</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K150" s="13">
         <v>-9732</v>
       </c>
-      <c r="G150" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H150" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I150" s="13">
+      <c r="L150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N150" s="13">
         <v>-87060</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D151" s="11"/>
       <c r="E151" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" s="11">
-        <v>0</v>
-      </c>
-      <c r="I151" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K151" s="11">
+        <v>0</v>
+      </c>
+      <c r="L151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M151" s="11">
+        <v>0</v>
+      </c>
+      <c r="N151" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D152" s="13"/>
       <c r="E152" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="13">
+        <v>18</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K152" s="13">
         <v>-11636503</v>
       </c>
-      <c r="G152" s="13">
+      <c r="L152" s="13">
         <v>-5364827</v>
       </c>
-      <c r="H152" s="13">
+      <c r="M152" s="13">
         <v>-3001443</v>
       </c>
-      <c r="I152" s="13">
+      <c r="N152" s="13">
         <v>-3549667</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J153" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" s="11">
+        <v>0</v>
+      </c>
+      <c r="L153" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M153" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N153" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
       <c r="E154" s="17">
+        <v>-5729643</v>
+      </c>
+      <c r="F154" s="17">
+        <v>-8179188</v>
+      </c>
+      <c r="G154" s="17">
+        <v>-9545387</v>
+      </c>
+      <c r="H154" s="17">
+        <v>-8192627</v>
+      </c>
+      <c r="I154" s="17">
+        <v>-13076366</v>
+      </c>
+      <c r="J154" s="17">
         <v>-10388001</v>
       </c>
-      <c r="F154" s="17">
+      <c r="K154" s="17">
         <v>-45155976</v>
       </c>
-      <c r="G154" s="17">
+      <c r="L154" s="17">
         <v>-19312006</v>
       </c>
-      <c r="H154" s="17">
+      <c r="M154" s="17">
         <v>-20674509</v>
       </c>
-      <c r="I154" s="17">
+      <c r="N154" s="17">
         <v>-12722420</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -3954,34 +5969,54 @@
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D156" s="11"/>
-      <c r="E156" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I156" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E156" s="11">
+        <v>0</v>
+      </c>
+      <c r="F156" s="11">
+        <v>0</v>
+      </c>
+      <c r="G156" s="11">
+        <v>0</v>
+      </c>
+      <c r="H156" s="11">
+        <v>0</v>
+      </c>
+      <c r="I156" s="11">
+        <v>0</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N156" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
@@ -4000,68 +6035,113 @@
       <c r="I157" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="17">
+        <v>0</v>
+      </c>
+      <c r="K157" s="17">
+        <v>0</v>
+      </c>
+      <c r="L157" s="17">
+        <v>0</v>
+      </c>
+      <c r="M157" s="17">
+        <v>0</v>
+      </c>
+      <c r="N157" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" s="15">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I158" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J158" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K158" s="15">
+        <v>0</v>
+      </c>
+      <c r="L158" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M158" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N158" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D159" s="17"/>
-      <c r="E159" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H159" s="17" t="s">
-        <v>13</v>
+      <c r="E159" s="17">
+        <v>0</v>
+      </c>
+      <c r="F159" s="17">
+        <v>0</v>
+      </c>
+      <c r="G159" s="17">
+        <v>0</v>
+      </c>
+      <c r="H159" s="17">
+        <v>0</v>
       </c>
       <c r="I159" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J159" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K159" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L159" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M159" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N159" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D160" s="15"/>
-      <c r="E160" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" s="15" t="s">
-        <v>13</v>
+      <c r="E160" s="15">
+        <v>0</v>
+      </c>
+      <c r="F160" s="15">
+        <v>0</v>
       </c>
       <c r="G160" s="15">
         <v>0</v>
@@ -4072,30 +6152,60 @@
       <c r="I160" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L160" s="15">
+        <v>0</v>
+      </c>
+      <c r="M160" s="15">
+        <v>0</v>
+      </c>
+      <c r="N160" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
       <c r="E161" s="17">
+        <v>-11420008</v>
+      </c>
+      <c r="F161" s="17">
+        <v>-14749806</v>
+      </c>
+      <c r="G161" s="17">
+        <v>-18899453</v>
+      </c>
+      <c r="H161" s="17">
+        <v>-19332044</v>
+      </c>
+      <c r="I161" s="17">
+        <v>-25891202</v>
+      </c>
+      <c r="J161" s="17">
         <v>-23916838</v>
       </c>
-      <c r="F161" s="17">
+      <c r="K161" s="17">
         <v>-96356372</v>
       </c>
-      <c r="G161" s="17">
+      <c r="L161" s="17">
         <v>-32097989</v>
       </c>
-      <c r="H161" s="17">
+      <c r="M161" s="17">
         <v>-40977218</v>
       </c>
-      <c r="I161" s="17">
+      <c r="N161" s="17">
         <v>-30436416</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -4104,8 +6214,13 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -4114,8 +6229,13 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4124,10 +6244,15 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -4146,8 +6271,23 @@
       <c r="I165" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K165" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L165" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M165" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N165" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4156,10 +6296,15 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -4168,368 +6313,598 @@
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
+      <c r="L167" s="9"/>
+      <c r="M167" s="9"/>
+      <c r="N167" s="9"/>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
+        <v>47203</v>
+      </c>
+      <c r="F168" s="11">
+        <v>80105</v>
+      </c>
+      <c r="G168" s="11">
+        <v>-15283</v>
+      </c>
+      <c r="H168" s="11">
+        <v>22606</v>
+      </c>
+      <c r="I168" s="11">
+        <v>55597</v>
+      </c>
+      <c r="J168" s="11">
         <v>28556</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I168" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K168" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L168" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M168" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N168" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D169" s="13"/>
       <c r="E169" s="13">
+        <v>843597</v>
+      </c>
+      <c r="F169" s="13">
+        <v>1326436</v>
+      </c>
+      <c r="G169" s="13">
+        <v>1602448</v>
+      </c>
+      <c r="H169" s="13">
+        <v>3265464</v>
+      </c>
+      <c r="I169" s="13">
+        <v>2553279</v>
+      </c>
+      <c r="J169" s="13">
         <v>4072375</v>
       </c>
-      <c r="F169" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H169" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I169" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K169" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L169" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M169" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N169" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" s="11">
+        <v>18</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K170" s="11">
         <v>5972179</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>1083384</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>1236709</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>1267153</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D171" s="13"/>
       <c r="E171" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F171" s="13">
+        <v>18</v>
+      </c>
+      <c r="F171" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J171" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K171" s="13">
         <v>461378</v>
       </c>
-      <c r="G171" s="13">
+      <c r="L171" s="13">
         <v>92521</v>
       </c>
-      <c r="H171" s="13">
+      <c r="M171" s="13">
         <v>203778</v>
       </c>
-      <c r="I171" s="13">
+      <c r="N171" s="13">
         <v>87711</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" s="11">
+        <v>18</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K172" s="11">
         <v>16516</v>
       </c>
-      <c r="G172" s="11">
+      <c r="L172" s="11">
         <v>18687</v>
       </c>
-      <c r="H172" s="11">
+      <c r="M172" s="11">
         <v>1329</v>
       </c>
-      <c r="I172" s="11">
+      <c r="N172" s="11">
         <v>23990</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D173" s="13"/>
       <c r="E173" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" s="13">
+        <v>18</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H173" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J173" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K173" s="13">
         <v>165102</v>
       </c>
-      <c r="G173" s="13">
+      <c r="L173" s="13">
         <v>30882</v>
       </c>
-      <c r="H173" s="13">
+      <c r="M173" s="13">
         <v>126109</v>
       </c>
-      <c r="I173" s="13">
+      <c r="N173" s="13">
         <v>19675</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
+        <v>209042</v>
+      </c>
+      <c r="F174" s="11">
+        <v>493843</v>
+      </c>
+      <c r="G174" s="11">
+        <v>676483</v>
+      </c>
+      <c r="H174" s="11">
+        <v>624763</v>
+      </c>
+      <c r="I174" s="11">
+        <v>566663</v>
+      </c>
+      <c r="J174" s="11">
         <v>252043</v>
       </c>
-      <c r="F174" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I174" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N174" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D175" s="13"/>
       <c r="E175" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" s="13">
+        <v>18</v>
+      </c>
+      <c r="F175" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J175" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K175" s="13">
         <v>1477753</v>
       </c>
-      <c r="G175" s="13">
+      <c r="L175" s="13">
         <v>490573</v>
       </c>
-      <c r="H175" s="13">
+      <c r="M175" s="13">
         <v>661375</v>
       </c>
-      <c r="I175" s="13">
+      <c r="N175" s="13">
         <v>99027</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F176" s="11">
+        <v>18</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K176" s="11">
         <v>456276</v>
       </c>
-      <c r="G176" s="11">
+      <c r="L176" s="11">
         <v>989359</v>
       </c>
-      <c r="H176" s="11">
+      <c r="M176" s="11">
         <v>-510301</v>
       </c>
-      <c r="I176" s="11">
+      <c r="N176" s="11">
         <v>-113004</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" s="13">
+        <v>18</v>
+      </c>
+      <c r="F177" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J177" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K177" s="13">
         <v>3453929</v>
       </c>
-      <c r="G177" s="13">
+      <c r="L177" s="13">
         <v>1256357</v>
       </c>
-      <c r="H177" s="13">
+      <c r="M177" s="13">
         <v>1318339</v>
       </c>
-      <c r="I177" s="13">
+      <c r="N177" s="13">
         <v>1349217</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F178" s="11">
+        <v>18</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K178" s="11">
         <v>1568528</v>
       </c>
-      <c r="G178" s="11">
+      <c r="L178" s="11">
         <v>850901</v>
       </c>
-      <c r="H178" s="11">
+      <c r="M178" s="11">
         <v>458192</v>
       </c>
-      <c r="I178" s="11">
+      <c r="N178" s="11">
         <v>684441</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D179" s="13"/>
       <c r="E179" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" s="13">
+        <v>18</v>
+      </c>
+      <c r="F179" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H179" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I179" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J179" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K179" s="13">
         <v>786517</v>
       </c>
-      <c r="G179" s="13">
+      <c r="L179" s="13">
         <v>487949</v>
       </c>
-      <c r="H179" s="13">
+      <c r="M179" s="13">
         <v>132501</v>
       </c>
-      <c r="I179" s="13">
+      <c r="N179" s="13">
         <v>306450</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" s="11">
+        <v>18</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J180" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K180" s="11">
         <v>323966</v>
       </c>
-      <c r="G180" s="11">
+      <c r="L180" s="11">
         <v>240803</v>
       </c>
-      <c r="H180" s="11">
+      <c r="M180" s="11">
         <v>276657</v>
       </c>
-      <c r="I180" s="11">
+      <c r="N180" s="11">
         <v>318125</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D181" s="13"/>
       <c r="E181" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F181" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J181" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K181" s="13">
+        <v>0</v>
+      </c>
+      <c r="L181" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M181" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N181" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15">
+        <v>1099842</v>
+      </c>
+      <c r="F182" s="15">
+        <v>1900384</v>
+      </c>
+      <c r="G182" s="15">
+        <v>2263648</v>
+      </c>
+      <c r="H182" s="15">
+        <v>3912833</v>
+      </c>
+      <c r="I182" s="15">
+        <v>3175539</v>
+      </c>
+      <c r="J182" s="15">
         <v>4352974</v>
       </c>
-      <c r="F182" s="15">
+      <c r="K182" s="15">
         <v>14682144</v>
       </c>
-      <c r="G182" s="15">
+      <c r="L182" s="15">
         <v>5541416</v>
       </c>
-      <c r="H182" s="15">
+      <c r="M182" s="15">
         <v>3904688</v>
       </c>
-      <c r="I182" s="15">
+      <c r="N182" s="15">
         <v>4042785</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -4538,296 +6913,481 @@
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
       <c r="I183" s="9"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+      <c r="M183" s="9"/>
+      <c r="N183" s="9"/>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
+        <v>1867737</v>
+      </c>
+      <c r="F184" s="11">
+        <v>4228290</v>
+      </c>
+      <c r="G184" s="11">
+        <v>2553204</v>
+      </c>
+      <c r="H184" s="11">
+        <v>2973431</v>
+      </c>
+      <c r="I184" s="11">
+        <v>14188444</v>
+      </c>
+      <c r="J184" s="11">
         <v>-4758605</v>
       </c>
-      <c r="F184" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G184" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H184" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I184" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K184" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L184" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M184" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N184" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D185" s="13"/>
       <c r="E185" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F185" s="13">
+        <v>18</v>
+      </c>
+      <c r="F185" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H185" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J185" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K185" s="13">
         <v>14088247</v>
       </c>
-      <c r="G185" s="13">
+      <c r="L185" s="13">
         <v>4031393</v>
       </c>
-      <c r="H185" s="13">
+      <c r="M185" s="13">
         <v>2617488</v>
       </c>
-      <c r="I185" s="13">
+      <c r="N185" s="13">
         <v>3809237</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" s="11">
+        <v>18</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K186" s="11">
         <v>740606</v>
       </c>
-      <c r="G186" s="11">
+      <c r="L186" s="11">
         <v>274693</v>
       </c>
-      <c r="H186" s="11">
+      <c r="M186" s="11">
         <v>67967</v>
       </c>
-      <c r="I186" s="11">
+      <c r="N186" s="11">
         <v>-5435</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D187" s="13"/>
       <c r="E187" s="13">
+        <v>1494448</v>
+      </c>
+      <c r="F187" s="13">
+        <v>1388277</v>
+      </c>
+      <c r="G187" s="13">
+        <v>2174906</v>
+      </c>
+      <c r="H187" s="13">
+        <v>1974024</v>
+      </c>
+      <c r="I187" s="13">
+        <v>-6052769</v>
+      </c>
+      <c r="J187" s="13">
         <v>10699582</v>
       </c>
-      <c r="F187" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G187" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H187" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I187" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K187" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L187" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M187" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N187" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F188" s="11">
+        <v>18</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K188" s="11">
         <v>1415438</v>
       </c>
-      <c r="G188" s="11">
+      <c r="L188" s="11">
         <v>714611</v>
       </c>
-      <c r="H188" s="11">
+      <c r="M188" s="11">
         <v>509401</v>
       </c>
-      <c r="I188" s="11">
+      <c r="N188" s="11">
         <v>769391</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D189" s="13"/>
       <c r="E189" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" s="13">
+        <v>18</v>
+      </c>
+      <c r="F189" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I189" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J189" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K189" s="13">
         <v>36069</v>
       </c>
-      <c r="G189" s="13">
+      <c r="L189" s="13">
         <v>15558</v>
       </c>
-      <c r="H189" s="13">
+      <c r="M189" s="13">
         <v>-3126</v>
       </c>
-      <c r="I189" s="13">
+      <c r="N189" s="13">
         <v>8406</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F190" s="11">
+        <v>18</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H190" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I190" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J190" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K190" s="11">
         <v>599303</v>
       </c>
-      <c r="G190" s="11">
+      <c r="L190" s="11">
         <v>74996</v>
       </c>
-      <c r="H190" s="11">
+      <c r="M190" s="11">
         <v>19481</v>
       </c>
-      <c r="I190" s="11">
+      <c r="N190" s="11">
         <v>94921</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D191" s="13"/>
       <c r="E191" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" s="13">
+        <v>18</v>
+      </c>
+      <c r="F191" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H191" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I191" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J191" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K191" s="13">
         <v>1163</v>
       </c>
-      <c r="G191" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H191" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I191" s="13">
+      <c r="L191" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M191" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N191" s="13">
         <v>9761</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F192" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F192" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H192" s="11">
-        <v>0</v>
-      </c>
-      <c r="I192" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H192" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I192" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J192" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K192" s="11">
+        <v>0</v>
+      </c>
+      <c r="L192" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M192" s="11">
+        <v>0</v>
+      </c>
+      <c r="N192" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D193" s="13"/>
       <c r="E193" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" s="13">
+        <v>18</v>
+      </c>
+      <c r="F193" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I193" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J193" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K193" s="13">
         <v>4058118</v>
       </c>
-      <c r="G193" s="13">
+      <c r="L193" s="13">
         <v>2455674</v>
       </c>
-      <c r="H193" s="13">
+      <c r="M193" s="13">
         <v>2216755</v>
       </c>
-      <c r="I193" s="13">
+      <c r="N193" s="13">
         <v>925186</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F194" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H194" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J194" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K194" s="11">
+        <v>0</v>
+      </c>
+      <c r="L194" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M194" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N194" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C195" s="17"/>
       <c r="D195" s="17"/>
       <c r="E195" s="17">
+        <v>3362185</v>
+      </c>
+      <c r="F195" s="17">
+        <v>5616567</v>
+      </c>
+      <c r="G195" s="17">
+        <v>4728110</v>
+      </c>
+      <c r="H195" s="17">
+        <v>4947455</v>
+      </c>
+      <c r="I195" s="17">
+        <v>8135675</v>
+      </c>
+      <c r="J195" s="17">
         <v>5940977</v>
       </c>
-      <c r="F195" s="17">
+      <c r="K195" s="17">
         <v>20938944</v>
       </c>
-      <c r="G195" s="17">
+      <c r="L195" s="17">
         <v>7566925</v>
       </c>
-      <c r="H195" s="17">
+      <c r="M195" s="17">
         <v>5427966</v>
       </c>
-      <c r="I195" s="17">
+      <c r="N195" s="17">
         <v>5611467</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -4836,34 +7396,54 @@
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="9"/>
+      <c r="N196" s="9"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D197" s="11"/>
-      <c r="E197" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H197" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I197" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E197" s="11">
+        <v>0</v>
+      </c>
+      <c r="F197" s="11">
+        <v>0</v>
+      </c>
+      <c r="G197" s="11">
+        <v>0</v>
+      </c>
+      <c r="H197" s="11">
+        <v>0</v>
+      </c>
+      <c r="I197" s="11">
+        <v>0</v>
+      </c>
+      <c r="J197" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K197" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L197" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M197" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N197" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C198" s="17"/>
       <c r="D198" s="17"/>
@@ -4882,26 +7462,56 @@
       <c r="I198" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="17">
+        <v>0</v>
+      </c>
+      <c r="K198" s="17">
+        <v>0</v>
+      </c>
+      <c r="L198" s="17">
+        <v>0</v>
+      </c>
+      <c r="M198" s="17">
+        <v>0</v>
+      </c>
+      <c r="N198" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15">
+        <v>4462027</v>
+      </c>
+      <c r="F199" s="15">
+        <v>7516951</v>
+      </c>
+      <c r="G199" s="15">
+        <v>6991758</v>
+      </c>
+      <c r="H199" s="15">
+        <v>8860288</v>
+      </c>
+      <c r="I199" s="15">
+        <v>11311214</v>
+      </c>
+      <c r="J199" s="15">
         <v>10293951</v>
       </c>
-      <c r="F199" s="15">
+      <c r="K199" s="15">
         <v>35621088</v>
       </c>
-      <c r="G199" s="15">
+      <c r="L199" s="15">
         <v>13108341</v>
       </c>
-      <c r="H199" s="15">
+      <c r="M199" s="15">
         <v>9332654</v>
       </c>
-      <c r="I199" s="15">
+      <c r="N199" s="15">
         <v>9654252</v>
       </c>
     </row>

--- a/database/industries/ravankar/shaspa/product/quarterly_seprated.xlsx
+++ b/database/industries/ravankar/shaspa/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741FE0C3-AEE8-45C8-B120-C34F374681DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57954C78-F572-441F-A05F-8FED0787E50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -691,12 +691,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -711,7 +711,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -728,7 +728,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -760,7 +760,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -809,7 +809,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -846,7 +846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -861,7 +861,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -917,7 +917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -956,7 +956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -995,7 +995,7 @@
         <v>19385</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>17194</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>4872</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>9993</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>32</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>71911</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>20</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>36128</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>21</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>25</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>26</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>27</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>6532</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>28</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>29</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>30</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>50861</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>34</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>103613</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>35</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>36</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>16</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>38</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>39</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>40</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>175524</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2204,7 +2204,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2219,7 +2219,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2234,7 +2234,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>41</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2286,7 +2286,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>16</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>19</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>20</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>4874283</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>21</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>325329</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>22</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>60805</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>23</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>55527</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>24</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>25</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>446293</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>26</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>4700093</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>27</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>7360487</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>28</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>1960175</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>29</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>949514</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>30</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>1024275</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>31</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>32</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>21756781</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>44</v>
       </c>
@@ -2903,7 +2903,7 @@
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>19</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>20</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>9666791</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>21</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>955049</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>24</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>25</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1344859</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>26</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>50325</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>27</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>1745189</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>28</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>96821</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>29</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>30</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>4474853</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>31</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
         <v>34</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>18333887</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>45</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
         <v>36</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>16</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>38</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>39</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="16" t="s">
         <v>40</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>40090668</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3631,7 +3631,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3646,7 +3646,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3661,7 +3661,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>46</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3713,7 +3713,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>47</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>16</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>19</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>20</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>251446118</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>21</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>217611371</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>22</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>419344828</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>23</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>402369565</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>24</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>25</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>253864050</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>26</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>320716001</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>27</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>428084623</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>28</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>402334770</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>29</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>417185413</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>30</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>102499249</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>31</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>49</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>19</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>20</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>267570610</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>21</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>227392619</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>24</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>25</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>251610664</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>26</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>322596154</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>27</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>267175291</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>28</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>247624041</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>29</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>30</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>87982010</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>31</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>50</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>16</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4793,7 +4793,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4808,7 +4808,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4823,7 +4823,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>51</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4875,7 +4875,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>52</v>
       </c>
@@ -4892,7 +4892,7 @@
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>16</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>19</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>20</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>-3607130</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>21</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>-237618</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>22</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>-36815</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="12" t="s">
         <v>23</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>-35852</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>24</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="12" t="s">
         <v>25</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>-347266</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>26</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>-4813097</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="12" t="s">
         <v>27</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>-6011270</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>28</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>-1275734</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>29</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>-643064</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>30</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>-706150</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="12" t="s">
         <v>31</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
         <v>53</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>-17713996</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>54</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>19</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="12" t="s">
         <v>20</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>-5857554</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>21</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>-960484</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="12" t="s">
         <v>24</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>25</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>-575468</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="12" t="s">
         <v>26</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>-41919</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>27</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>-1650268</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="12" t="s">
         <v>28</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>-87060</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>29</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="12" t="s">
         <v>30</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>-3549667</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>31</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="16" t="s">
         <v>55</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>-12722420</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>56</v>
       </c>
@@ -5975,7 +5975,7 @@
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>16</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="16" t="s">
         <v>57</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="14" t="s">
         <v>16</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="16" t="s">
         <v>38</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="14" t="s">
         <v>39</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="16" t="s">
         <v>40</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>-30436416</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -6220,7 +6220,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -6235,7 +6235,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -6250,7 +6250,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B165" s="7" t="s">
         <v>58</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -6302,7 +6302,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>59</v>
       </c>
@@ -6319,7 +6319,7 @@
       <c r="M167" s="9"/>
       <c r="N167" s="9"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>16</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="12" t="s">
         <v>19</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>20</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>1267153</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="12" t="s">
         <v>21</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>87711</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>22</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>23990</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="12" t="s">
         <v>23</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>19675</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>24</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="12" t="s">
         <v>25</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>99027</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>26</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>-113004</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="12" t="s">
         <v>27</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>1349217</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>28</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>684441</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="12" t="s">
         <v>29</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>306450</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>30</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>318125</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="12" t="s">
         <v>31</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="14" t="s">
         <v>60</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>4042785</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>61</v>
       </c>
@@ -6919,7 +6919,7 @@
       <c r="M183" s="9"/>
       <c r="N183" s="9"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>19</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="12" t="s">
         <v>20</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>3809237</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>21</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>-5435</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="12" t="s">
         <v>24</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>25</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>769391</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="12" t="s">
         <v>26</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>8406</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>27</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>94921</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="12" t="s">
         <v>28</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>9761</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>29</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="12" t="s">
         <v>30</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>925186</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>31</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="16" t="s">
         <v>62</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>5611467</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>63</v>
       </c>
@@ -7402,7 +7402,7 @@
       <c r="M196" s="9"/>
       <c r="N196" s="9"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>16</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="16" t="s">
         <v>64</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="14" t="s">
         <v>40</v>
       </c>
